--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/画面一覧_第1.1版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/画面一覧_第1.1版.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sho/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BD569B8-558D-BD4C-9C4B-6F2623B5A729}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82C1E4E-C47F-1944-8CFF-798AA5294721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
     <sheet name="画面一覧　作成例" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'画面一覧　作成例'!$A$1:$J$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'画面一覧　作成例'!$A$1:$J$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$A$1:$IV$2</definedName>
   </definedNames>
   <calcPr calcId="162913" calcMode="manual"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
@@ -379,10 +378,6 @@
     <rPh sb="0" eb="4">
       <t>ガメンイチラン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -841,7 +836,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,9 +912,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,9 +925,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -944,57 +933,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,9 +961,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,12 +1007,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1435,7 +1379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AK29" sqref="AK29"/>
     </sheetView>
   </sheetViews>
@@ -1876,14 +1820,14 @@
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
-      <c r="Y3" s="67" t="s">
+      <c r="Y3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="68"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="54"/>
       <c r="AE3" s="19"/>
       <c r="AF3" s="22"/>
     </row>
@@ -1984,7 +1928,7 @@
       <c r="X6" s="19"/>
       <c r="Y6" s="19"/>
       <c r="Z6" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="19"/>
       <c r="AB6" s="19"/>
@@ -2052,18 +1996,18 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="X8" s="19"/>
-      <c r="Y8" s="69" t="s">
+      <c r="Y8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="69" t="s">
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="69" t="s">
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="AD8" s="71"/>
+      <c r="AD8" s="57"/>
       <c r="AF8" s="22"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
@@ -2074,20 +2018,20 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="78"/>
+      <c r="F9" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="63"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -2095,36 +2039,36 @@
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
-      <c r="Y9" s="79"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="79"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="79"/>
-      <c r="AD9" s="80"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="65"/>
       <c r="AF9" s="22"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="18"/>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="93"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="78"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
@@ -2132,32 +2076,32 @@
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="82"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="67"/>
       <c r="AF10" s="22"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="18"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="96"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="81"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
@@ -2165,12 +2109,12 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="83"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="84"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="69"/>
       <c r="AF11" s="22"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -2389,18 +2333,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="97" t="s">
+      <c r="L18" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="21"/>
@@ -2425,16 +2369,16 @@
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="21"/>
@@ -2459,16 +2403,16 @@
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
@@ -2699,18 +2643,18 @@
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="18"/>
-      <c r="B27" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72">
+      <c r="B27" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="50">
         <v>43600</v>
       </c>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="100"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
       <c r="J27" s="28"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -2732,17 +2676,17 @@
       <c r="AB27" s="30"/>
       <c r="AC27" s="32"/>
       <c r="AD27" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AE27" s="19"/>
       <c r="AF27" s="22"/>
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="18"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="71"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="28"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -2773,14 +2717,14 @@
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="18"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="74"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="28"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
@@ -3317,6 +3261,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L18:U20"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="B27:E27"/>
@@ -3333,7 +3278,6 @@
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="F10:Q11"/>
-    <mergeCell ref="L18:U20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3350,10 +3294,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J51"/>
+  <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3372,95 +3316,95 @@
   <sheetData>
     <row r="1" spans="2:10" ht="20.25" customHeight="1"/>
     <row r="2" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="84" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B3" s="102"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="49">
         <v>43600</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B4" s="103"/>
+      <c r="B4" s="86"/>
       <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="92"/>
       <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="107" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="109"/>
+      <c r="D5" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
       <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" ht="20.25" customHeight="1">
-      <c r="B6" s="103"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109"/>
+      <c r="D6" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="92"/>
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
@@ -3468,11 +3412,11 @@
     </row>
     <row r="7" spans="2:10" ht="20.25" customHeight="1"/>
     <row r="8" spans="2:10" ht="20.25" customHeight="1">
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
     </row>
     <row r="9" spans="2:10" ht="20.25" customHeight="1">
       <c r="B9" s="4" t="s">
@@ -3496,570 +3440,264 @@
       <c r="H9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="49" t="s">
+      <c r="J9" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="42" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="42" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="47"/>
+      <c r="J10" s="45"/>
     </row>
     <row r="11" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="42" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="42" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="47"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="47"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="42" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="42" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="47"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="42" t="s">
+      <c r="D16" s="43"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="47"/>
-    </row>
-    <row r="17" spans="2:10" s="39" customFormat="1" ht="40.75" customHeight="1">
+      <c r="J16" s="45"/>
+    </row>
+    <row r="17" spans="2:10" ht="30.75" customHeight="1">
       <c r="B17" s="3"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="44"/>
-      <c r="I17" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="47"/>
-    </row>
-    <row r="18" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
+      <c r="I17" s="2"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="2:10" ht="30.75" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="44"/>
-      <c r="I18" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="47"/>
-    </row>
-    <row r="19" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
+      <c r="I18" s="2"/>
+      <c r="J18" s="45"/>
+    </row>
+    <row r="19" spans="2:10" ht="30.75" customHeight="1">
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="44"/>
-      <c r="I19" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="47"/>
-    </row>
-    <row r="20" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
+      <c r="I19" s="2"/>
+      <c r="J19" s="45"/>
+    </row>
+    <row r="20" spans="2:10" ht="30.75" customHeight="1">
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="63"/>
-    </row>
-    <row r="22" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
+      <c r="I20" s="48"/>
+      <c r="J20" s="45"/>
+    </row>
+    <row r="21" spans="2:10" ht="30.75" customHeight="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" spans="2:10" ht="30.75" customHeight="1">
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="44"/>
-      <c r="I22" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
+      <c r="I22" s="2"/>
+      <c r="J22" s="45"/>
+    </row>
+    <row r="23" spans="2:10" ht="30.75" customHeight="1">
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="44"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="65"/>
-    </row>
-    <row r="24" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
+      <c r="I23" s="2"/>
+      <c r="J23" s="45"/>
+    </row>
+    <row r="24" spans="2:10" ht="30.75" customHeight="1">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="44"/>
-      <c r="I24" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B25" s="50"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="55"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="2:10" ht="30.75" customHeight="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="46"/>
     </row>
     <row r="26" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="55"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="45"/>
     </row>
     <row r="27" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="55"/>
-    </row>
-    <row r="28" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="55"/>
-    </row>
-    <row r="29" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B29" s="3"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B30" s="3"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="46"/>
-    </row>
-    <row r="31" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B31" s="3"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="48"/>
-    </row>
-    <row r="32" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B32" s="3"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="48"/>
-    </row>
-    <row r="33" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B33" s="3"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="47"/>
-    </row>
-    <row r="34" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B34" s="3"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="47"/>
-    </row>
-    <row r="35" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B35" s="3"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="47"/>
-    </row>
-    <row r="36" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B36" s="3"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J36" s="47"/>
-    </row>
-    <row r="37" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B37" s="3"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="47"/>
-    </row>
-    <row r="38" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B38" s="3"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="47"/>
-    </row>
-    <row r="39" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B39" s="3"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="47"/>
-    </row>
-    <row r="40" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B40" s="3"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="47"/>
-    </row>
-    <row r="41" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="47"/>
-    </row>
-    <row r="42" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B42" s="3"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="47"/>
-    </row>
-    <row r="43" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B43" s="3"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="47"/>
-    </row>
-    <row r="44" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B44" s="3"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="47"/>
-    </row>
-    <row r="45" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B45" s="3"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="47"/>
-    </row>
-    <row r="46" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B46" s="3"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="47"/>
-    </row>
-    <row r="47" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="47"/>
-    </row>
-    <row r="48" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B48" s="3"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="48"/>
-    </row>
-    <row r="49" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="48"/>
-    </row>
-    <row r="50" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B50" s="3"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="47"/>
-    </row>
-    <row r="51" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B51" s="3"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="47"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4074,7 +3712,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="36" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/画面一覧_第1.1版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/画面一覧_第1.1版.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaito/Desktop/GitHubtest/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/03_機能・画面一覧/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82C1E4E-C47F-1944-8CFF-798AA5294721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821796C8-8602-8A4D-9F72-9B2C22D08D0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13960" windowHeight="13660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
     <sheet name="画面一覧　作成例" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'画面一覧　作成例'!$A$1:$J$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'画面一覧　作成例'!$A$1:$J$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$A$1:$IV$2</definedName>
   </definedNames>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="70">
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
@@ -456,32 +456,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>G2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Slack投票ルーム投票開始確認画面</t>
-  </si>
-  <si>
-    <t>Slack投票ルーム投票開始確認画面</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Slack投票ルーム投票中止画面</t>
     <rPh sb="0" eb="1">
       <t>ト</t>
@@ -525,6 +499,52 @@
   </si>
   <si>
     <t>Slack投票ルーム投票中止画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slack投票ルーム投票遷移画面</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slack投票ルーム投票確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウヒョウルーム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Slack投票ルーム投票完了画面</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>木村</t>
+    <rPh sb="0" eb="2">
+      <t>キムラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -836,7 +856,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +959,8 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="4" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,8 +1027,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1033,6 +1053,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1820,14 +1843,14 @@
       <c r="V3" s="19"/>
       <c r="W3" s="19"/>
       <c r="X3" s="19"/>
-      <c r="Y3" s="53" t="s">
+      <c r="Y3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="54"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="56"/>
       <c r="AE3" s="19"/>
       <c r="AF3" s="22"/>
     </row>
@@ -1996,18 +2019,18 @@
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="X8" s="19"/>
-      <c r="Y8" s="55" t="s">
+      <c r="Y8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="55" t="s">
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="55" t="s">
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AD8" s="57"/>
+      <c r="AD8" s="59"/>
       <c r="AF8" s="22"/>
     </row>
     <row r="9" spans="1:176" ht="12.75" customHeight="1">
@@ -2018,20 +2041,20 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="65"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -2039,36 +2062,36 @@
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="65"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="67"/>
       <c r="AF9" s="22"/>
     </row>
     <row r="10" spans="1:176" ht="12.75" customHeight="1">
       <c r="A10" s="18"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="76" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="80"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
@@ -2076,32 +2099,32 @@
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="67"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="69"/>
       <c r="AF10" s="22"/>
     </row>
     <row r="11" spans="1:176" ht="12.75" customHeight="1">
       <c r="A11" s="18"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="81"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
@@ -2109,12 +2132,12 @@
       <c r="V11" s="19"/>
       <c r="W11" s="19"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="68"/>
-      <c r="AD11" s="69"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="71"/>
       <c r="AF11" s="22"/>
     </row>
     <row r="12" spans="1:176" ht="12.75" customHeight="1">
@@ -2333,18 +2356,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="82" t="s">
+      <c r="L18" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="X18" s="21"/>
@@ -2369,16 +2392,16 @@
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="21"/>
@@ -2403,16 +2426,16 @@
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
       <c r="X20" s="19"/>
@@ -2643,18 +2666,18 @@
     </row>
     <row r="27" spans="1:32" ht="12.75" customHeight="1">
       <c r="A27" s="18"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="50">
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="52">
         <v>43600</v>
       </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
       <c r="J27" s="28"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29"/>
@@ -2683,10 +2706,10 @@
     </row>
     <row r="28" spans="1:32" ht="12.75" customHeight="1">
       <c r="A28" s="18"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="28"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -2717,14 +2740,14 @@
     </row>
     <row r="29" spans="1:32" ht="12.75" customHeight="1">
       <c r="A29" s="18"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="28"/>
       <c r="K29" s="29"/>
       <c r="L29" s="29"/>
@@ -3261,11 +3284,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L18:U20"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F29:I29"/>
     <mergeCell ref="AA3:AD3"/>
     <mergeCell ref="Y8:Z8"/>
     <mergeCell ref="AA8:AB8"/>
@@ -3274,10 +3292,15 @@
     <mergeCell ref="Y9:Z11"/>
     <mergeCell ref="AA9:AB11"/>
     <mergeCell ref="AC9:AD11"/>
+    <mergeCell ref="F10:Q11"/>
+    <mergeCell ref="L18:U20"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F29:I29"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:Q11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -3294,10 +3317,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J27"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -3371,7 +3394,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.25" customHeight="1">
@@ -3391,7 +3414,9 @@
       <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="2:10" ht="20.25" customHeight="1">
       <c r="B6" s="86"/>
@@ -3408,7 +3433,9 @@
       <c r="I6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="93">
+        <v>43634</v>
+      </c>
     </row>
     <row r="7" spans="2:10" ht="20.25" customHeight="1"/>
     <row r="8" spans="2:10" ht="20.25" customHeight="1">
@@ -3456,7 +3483,7 @@
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="42" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>36</v>
@@ -3475,11 +3502,11 @@
         <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D11" s="43"/>
-      <c r="E11" s="42" t="s">
-        <v>54</v>
+      <c r="E11" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
@@ -3491,33 +3518,31 @@
     </row>
     <row r="12" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D12" s="43"/>
-      <c r="E12" s="42" t="s">
-        <v>57</v>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="43"/>
-      <c r="I12" s="41" t="s">
-        <v>36</v>
-      </c>
+      <c r="I12" s="41"/>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="42" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -3529,47 +3554,51 @@
     </row>
     <row r="14" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D14" s="43"/>
-      <c r="E14" s="42" t="s">
-        <v>59</v>
+      <c r="E14" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="43"/>
-      <c r="I14" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="I14" s="41"/>
       <c r="J14" s="45"/>
     </row>
     <row r="15" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
       <c r="I15" s="41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J15" s="45"/>
     </row>
     <row r="16" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D16" s="43"/>
-      <c r="E16" s="42"/>
+      <c r="E16" s="42" t="s">
+        <v>53</v>
+      </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="43"/>
@@ -3578,26 +3607,36 @@
       </c>
       <c r="J16" s="45"/>
     </row>
-    <row r="17" spans="2:10" ht="30.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
+    <row r="17" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D17" s="43"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="2"/>
+      <c r="E17" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="J17" s="45"/>
     </row>
-    <row r="18" spans="2:10" ht="30.75" customHeight="1">
+    <row r="18" spans="2:10" s="39" customFormat="1" ht="30.75" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
       <c r="D18" s="43"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="2"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="J18" s="45"/>
     </row>
     <row r="19" spans="2:10" ht="30.75" customHeight="1">
@@ -3619,7 +3658,7 @@
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
       <c r="H20" s="44"/>
-      <c r="I20" s="48"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="45"/>
     </row>
     <row r="21" spans="2:10" ht="30.75" customHeight="1">
@@ -3641,7 +3680,7 @@
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
       <c r="H22" s="44"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="48"/>
       <c r="J22" s="45"/>
     </row>
     <row r="23" spans="2:10" ht="30.75" customHeight="1">
@@ -3663,8 +3702,8 @@
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
       <c r="H24" s="44"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="46"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="45"/>
     </row>
     <row r="25" spans="2:10" ht="30.75" customHeight="1">
       <c r="B25" s="3"/>
@@ -3674,8 +3713,8 @@
       <c r="F25" s="40"/>
       <c r="G25" s="40"/>
       <c r="H25" s="44"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="46"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="45"/>
     </row>
     <row r="26" spans="2:10" ht="30.75" customHeight="1">
       <c r="B26" s="3"/>
@@ -3686,7 +3725,7 @@
       <c r="G26" s="40"/>
       <c r="H26" s="44"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="45"/>
+      <c r="J26" s="46"/>
     </row>
     <row r="27" spans="2:10" ht="30.75" customHeight="1">
       <c r="B27" s="3"/>
@@ -3697,7 +3736,29 @@
       <c r="G27" s="40"/>
       <c r="H27" s="44"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="45"/>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="2:10" ht="30.75" customHeight="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="2:10" ht="30.75" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="8">
